--- a/message.xlsx
+++ b/message.xlsx
@@ -5,10 +5,10 @@
   <workbookPr date1904="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yanglibing/Work/cg/code-generator/src/main/resources/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yanglibing/Work/cg/code-generator/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB7EA10C-D050-9948-8FFF-E70ADC02D1B5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE4DFE94-D758-7743-8EF5-3F3F89013463}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16100" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="96">
   <si>
     <t>修订履历</t>
   </si>
@@ -831,6 +831,14 @@
   </si>
   <si>
     <t>-Foreign key name is too long and has been truncated (%s) \n</t>
+  </si>
+  <si>
+    <t>无法读取配置文件（%s）</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>E_014</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -840,7 +848,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy/mm/dd"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="14">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
@@ -925,6 +933,12 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Helvetica"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -1030,7 +1044,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1118,6 +1132,12 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1166,11 +1186,8 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2521,14 +2538,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="16">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
     </row>
     <row r="2" spans="1:6" ht="20.75" customHeight="1">
       <c r="A2" s="3" t="s">
@@ -2808,23 +2825,23 @@
   <sheetData>
     <row r="1" spans="2:9" hidden="1"/>
     <row r="2" spans="2:9">
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="35" t="s">
+      <c r="C2" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="33" t="s">
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="34"/>
-      <c r="I2" s="34"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
     </row>
     <row r="3" spans="2:9" ht="17">
-      <c r="B3" s="32"/>
+      <c r="B3" s="34"/>
       <c r="C3" s="20" t="s">
         <v>11</v>
       </c>
@@ -2887,7 +2904,7 @@
       <c r="G5" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="H5" s="45" t="s">
+      <c r="H5" s="29" t="s">
         <v>63</v>
       </c>
       <c r="I5" s="25"/>
@@ -2906,7 +2923,7 @@
       <c r="G6" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="H6" s="45" t="s">
+      <c r="H6" s="29" t="s">
         <v>64</v>
       </c>
       <c r="I6" s="25"/>
@@ -2925,7 +2942,7 @@
       <c r="G7" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="H7" s="45" t="s">
+      <c r="H7" s="29" t="s">
         <v>65</v>
       </c>
       <c r="I7" s="25"/>
@@ -2944,7 +2961,7 @@
       <c r="G8" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="H8" s="45" t="s">
+      <c r="H8" s="29" t="s">
         <v>66</v>
       </c>
       <c r="I8" s="25"/>
@@ -2963,7 +2980,7 @@
       <c r="G9" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="H9" s="45" t="s">
+      <c r="H9" s="29" t="s">
         <v>67</v>
       </c>
       <c r="I9" s="25"/>
@@ -2982,7 +2999,7 @@
       <c r="G10" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="H10" s="46" t="s">
+      <c r="H10" s="30" t="s">
         <v>68</v>
       </c>
       <c r="I10" s="25"/>
@@ -3001,7 +3018,7 @@
       <c r="G11" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="H11" s="46" t="s">
+      <c r="H11" s="30" t="s">
         <v>69</v>
       </c>
       <c r="I11" s="25"/>
@@ -3020,7 +3037,7 @@
       <c r="G12" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="H12" s="46" t="s">
+      <c r="H12" s="30" t="s">
         <v>70</v>
       </c>
       <c r="I12" s="25"/>
@@ -3039,7 +3056,7 @@
       <c r="G13" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="H13" s="46" t="s">
+      <c r="H13" s="30" t="s">
         <v>71</v>
       </c>
       <c r="I13" s="25"/>
@@ -3054,7 +3071,7 @@
       <c r="E14" s="25"/>
       <c r="F14" s="25"/>
       <c r="G14" s="16" t="str">
-        <f t="shared" ref="G6:G18" si="1">IF(H14="", "", H14)</f>
+        <f t="shared" ref="G14:G18" si="1">IF(H14="", "", H14)</f>
         <v/>
       </c>
       <c r="H14" s="26"/>
@@ -3154,7 +3171,7 @@
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="B2" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B2" sqref="B2"/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2:B3"/>
+      <selection pane="bottomLeft" activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.25" defaultRowHeight="16"/>
@@ -3172,22 +3189,22 @@
   <sheetData>
     <row r="1" spans="2:8" hidden="1"/>
     <row r="2" spans="2:8">
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="42" t="s">
+      <c r="C2" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="43"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="40" t="s">
+      <c r="D2" s="45"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
     </row>
     <row r="3" spans="2:8">
-      <c r="B3" s="39"/>
+      <c r="B3" s="41"/>
       <c r="C3" s="8" t="s">
         <v>11</v>
       </c>
@@ -3455,14 +3472,18 @@
       <c r="B18" s="4">
         <v>14</v>
       </c>
-      <c r="C18" s="5"/>
+      <c r="C18" s="5" t="s">
+        <v>95</v>
+      </c>
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
       <c r="F18" s="16" t="str">
-        <f t="shared" ref="F6:F18" si="0">IF(G18="", "", G18)</f>
-        <v/>
-      </c>
-      <c r="G18" s="16"/>
+        <f t="shared" ref="F18" si="0">IF(G18="", "", G18)</f>
+        <v>无法读取配置文件（%s）</v>
+      </c>
+      <c r="G18" s="47" t="s">
+        <v>94</v>
+      </c>
       <c r="H18" s="5"/>
     </row>
   </sheetData>

--- a/message.xlsx
+++ b/message.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yanglibing/Work/cg/code-generator/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE4DFE94-D758-7743-8EF5-3F3F89013463}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F2FC974-AEBE-0F4B-8A6B-DD54E7A4B0FB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16100" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -124,9 +124,6 @@
     <t>E_006</t>
   </si>
   <si>
-    <t>无法访问%s.%s属性的值: \r\n%s</t>
-  </si>
-  <si>
     <t>E_007</t>
   </si>
   <si>
@@ -136,13 +133,7 @@
     <t>E_008</t>
   </si>
   <si>
-    <t>输出文件已经存在，且是一个目录不可继续生成。\r\n%s</t>
-  </si>
-  <si>
     <t>E_009</t>
-  </si>
-  <si>
-    <t>无法创建输出文件目录。\r\n%s</t>
   </si>
   <si>
     <t>E_010</t>
@@ -201,120 +192,114 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">-- </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
+    <t>zh_CN</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.3</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>语言地区修改为大写</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源ID【%s】重复，请检查。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>E_013</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.4</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加4.0版本资源</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>翻译状态</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>ddl.mssql</t>
+  </si>
+  <si>
+    <t>ddl.mysql</t>
+  </si>
+  <si>
+    <t>ddl.sqlite</t>
+  </si>
+  <si>
+    <t>dml</t>
+  </si>
+  <si>
+    <t>msg.resx</t>
+  </si>
+  <si>
+    <t>msg.json</t>
+  </si>
+  <si>
+    <t>msg.ios</t>
+  </si>
+  <si>
+    <t>msg.android</t>
+  </si>
+  <si>
+    <t>msg.prop</t>
+  </si>
+  <si>
+    <r>
+      <t>生成</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t>SqlServer</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>外键名太长已截断（</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
+      <t>数据库结构</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
         <color indexed="8"/>
         <rFont val="Helvetica"/>
         <family val="2"/>
       </rPr>
-      <t>%s</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
+      <t>SQL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>）</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
+      <t>脚本（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
         <color indexed="8"/>
         <rFont val="Helvetica"/>
         <family val="2"/>
       </rPr>
-      <t>\r\n</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>zh_CN</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.3</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>语言地区修改为大写</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>资源ID【%s】重复，请检查。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>E_013</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.4</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>添加4.0版本资源</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>翻译状态</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>ddl.mssql</t>
-  </si>
-  <si>
-    <t>ddl.mysql</t>
-  </si>
-  <si>
-    <t>ddl.sqlite</t>
-  </si>
-  <si>
-    <t>dml</t>
-  </si>
-  <si>
-    <t>msg.resx</t>
-  </si>
-  <si>
-    <t>msg.json</t>
-  </si>
-  <si>
-    <t>msg.ios</t>
-  </si>
-  <si>
-    <t>msg.android</t>
-  </si>
-  <si>
-    <t>msg.prop</t>
-  </si>
-  <si>
-    <r>
-      <t>生成</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica"/>
-        <family val="2"/>
-      </rPr>
-      <t>SqlServer</t>
+      <t>.ddl</t>
     </r>
     <r>
       <rPr>
@@ -324,7 +309,12 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>数据库结构</t>
+      <t>）。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>生成</t>
     </r>
     <r>
       <rPr>
@@ -333,7 +323,7 @@
         <rFont val="Helvetica"/>
         <family val="2"/>
       </rPr>
-      <t>SQL</t>
+      <t>MySql</t>
     </r>
     <r>
       <rPr>
@@ -343,7 +333,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>脚本（</t>
+      <t>数据库结构</t>
     </r>
     <r>
       <rPr>
@@ -352,7 +342,7 @@
         <rFont val="Helvetica"/>
         <family val="2"/>
       </rPr>
-      <t>.ddl</t>
+      <t>SQL</t>
     </r>
     <r>
       <rPr>
@@ -362,12 +352,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>）。</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>生成</t>
+      <t>脚本（</t>
     </r>
     <r>
       <rPr>
@@ -376,7 +361,7 @@
         <rFont val="Helvetica"/>
         <family val="2"/>
       </rPr>
-      <t>MySql</t>
+      <t>.ddl</t>
     </r>
     <r>
       <rPr>
@@ -386,7 +371,12 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>数据库结构</t>
+      <t>）。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>生成</t>
     </r>
     <r>
       <rPr>
@@ -395,7 +385,7 @@
         <rFont val="Helvetica"/>
         <family val="2"/>
       </rPr>
-      <t>SQL</t>
+      <t>SQLite</t>
     </r>
     <r>
       <rPr>
@@ -405,7 +395,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>脚本（</t>
+      <t>数据库结构</t>
     </r>
     <r>
       <rPr>
@@ -414,7 +404,7 @@
         <rFont val="Helvetica"/>
         <family val="2"/>
       </rPr>
-      <t>.ddl</t>
+      <t>SQL</t>
     </r>
     <r>
       <rPr>
@@ -424,12 +414,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>）。</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>生成</t>
+      <t>脚本（</t>
     </r>
     <r>
       <rPr>
@@ -438,7 +423,7 @@
         <rFont val="Helvetica"/>
         <family val="2"/>
       </rPr>
-      <t>SQLite</t>
+      <t>.ddl</t>
     </r>
     <r>
       <rPr>
@@ -448,7 +433,12 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>数据库结构</t>
+      <t>）。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>生成数据库初始</t>
     </r>
     <r>
       <rPr>
@@ -457,7 +447,7 @@
         <rFont val="Helvetica"/>
         <family val="2"/>
       </rPr>
-      <t>SQL</t>
+      <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
@@ -467,7 +457,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>脚本（</t>
+      <t>数据</t>
     </r>
     <r>
       <rPr>
@@ -476,7 +466,7 @@
         <rFont val="Helvetica"/>
         <family val="2"/>
       </rPr>
-      <t>.ddl</t>
+      <t>SQL</t>
     </r>
     <r>
       <rPr>
@@ -486,12 +476,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>）。</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>生成数据库初始</t>
+      <t>脚本（</t>
     </r>
     <r>
       <rPr>
@@ -500,7 +485,7 @@
         <rFont val="Helvetica"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> </t>
+      <t>.dml</t>
     </r>
     <r>
       <rPr>
@@ -510,7 +495,12 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>数据</t>
+      <t>）。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>生成</t>
     </r>
     <r>
       <rPr>
@@ -519,7 +509,7 @@
         <rFont val="Helvetica"/>
         <family val="2"/>
       </rPr>
-      <t>SQL</t>
+      <t>.NET</t>
     </r>
     <r>
       <rPr>
@@ -529,7 +519,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>脚本（</t>
+      <t>国际化资源文件（</t>
     </r>
     <r>
       <rPr>
@@ -538,7 +528,7 @@
         <rFont val="Helvetica"/>
         <family val="2"/>
       </rPr>
-      <t>.dml</t>
+      <t>.resx</t>
     </r>
     <r>
       <rPr>
@@ -562,7 +552,7 @@
         <rFont val="Helvetica"/>
         <family val="2"/>
       </rPr>
-      <t>.NET</t>
+      <t>JSON</t>
     </r>
     <r>
       <rPr>
@@ -581,7 +571,7 @@
         <rFont val="Helvetica"/>
         <family val="2"/>
       </rPr>
-      <t>.resx</t>
+      <t>.json</t>
     </r>
     <r>
       <rPr>
@@ -605,7 +595,7 @@
         <rFont val="Helvetica"/>
         <family val="2"/>
       </rPr>
-      <t>JSON</t>
+      <t>IOS</t>
     </r>
     <r>
       <rPr>
@@ -624,7 +614,7 @@
         <rFont val="Helvetica"/>
         <family val="2"/>
       </rPr>
-      <t>.json</t>
+      <t>.strings</t>
     </r>
     <r>
       <rPr>
@@ -648,7 +638,7 @@
         <rFont val="Helvetica"/>
         <family val="2"/>
       </rPr>
-      <t>IOS</t>
+      <t>Android</t>
     </r>
     <r>
       <rPr>
@@ -667,7 +657,7 @@
         <rFont val="Helvetica"/>
         <family val="2"/>
       </rPr>
-      <t>.strings</t>
+      <t>strings.xml</t>
     </r>
     <r>
       <rPr>
@@ -681,6 +671,68 @@
     </r>
   </si>
   <si>
+    <t>Generate SQL script (.ddl) of SqlServer database structure.</t>
+  </si>
+  <si>
+    <t>Generate SQL script (.ddl) for MySql database structure.</t>
+  </si>
+  <si>
+    <t>Generate SQL script (.ddl) for SQLite database structure.</t>
+  </si>
+  <si>
+    <t>Generate SQL script (.dml) for initial database data.</t>
+  </si>
+  <si>
+    <t>Generate .NET international resource files (.resx).</t>
+  </si>
+  <si>
+    <t>Generate JSON international resource files (.json).</t>
+  </si>
+  <si>
+    <t>Generate IOS international resource files (.strings).</t>
+  </si>
+  <si>
+    <t>Generate an Android international resource file (strings.xml).</t>
+  </si>
+  <si>
+    <t>Generate Java international resource files (.properties).</t>
+  </si>
+  <si>
+    <t>Failed to convert%s attribute:%s</t>
+  </si>
+  <si>
+    <t>There is no%s field, please check whether the Excel template is correct.</t>
+  </si>
+  <si>
+    <t>There is no code to be generated in the specified Excel.</t>
+  </si>
+  <si>
+    <t>%s does not exist.</t>
+  </si>
+  <si>
+    <t>Excel failed to read, please check whether the Excel format is correct.</t>
+  </si>
+  <si>
+    <t>Failed to write file:%s</t>
+  </si>
+  <si>
+    <t>This type of code generation is currently not supported.</t>
+  </si>
+  <si>
+    <t>Unable to create (%s):%s</t>
+  </si>
+  <si>
+    <t>Resource ID [%s] is duplicated, please check.</t>
+  </si>
+  <si>
+    <t>无法读取配置文件（%s）</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>E_014</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <t>生成</t>
     </r>
@@ -691,7 +743,7 @@
         <rFont val="Helvetica"/>
         <family val="2"/>
       </rPr>
-      <t>Android</t>
+      <t>Java</t>
     </r>
     <r>
       <rPr>
@@ -710,7 +762,7 @@
         <rFont val="Helvetica"/>
         <family val="2"/>
       </rPr>
-      <t>strings.xml</t>
+      <t>.properties</t>
     </r>
     <r>
       <rPr>
@@ -722,122 +774,69 @@
       </rPr>
       <t>）。</t>
     </r>
-  </si>
-  <si>
-    <r>
-      <t>生成</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica"/>
-        <family val="2"/>
-      </rPr>
-      <t>Java</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>无法访问%s.%s属性的值: %s</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>输出文件已经存在，且是一个目录不可继续生成。%s</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>无法创建输出文件目录。%s</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>The output file already exists, and a directory cannot be generated. %s</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Unable to create output file directory. %s</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">-- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>国际化资源文件（</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica"/>
-        <family val="2"/>
-      </rPr>
-      <t>.properties</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
+      <t>外键名太长已截断（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>%s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>）。</t>
-    </r>
-  </si>
-  <si>
-    <t>Generate SQL script (.ddl) of SqlServer database structure.</t>
-  </si>
-  <si>
-    <t>Generate SQL script (.ddl) for MySql database structure.</t>
-  </si>
-  <si>
-    <t>Generate SQL script (.ddl) for SQLite database structure.</t>
-  </si>
-  <si>
-    <t>Generate SQL script (.dml) for initial database data.</t>
-  </si>
-  <si>
-    <t>Generate .NET international resource files (.resx).</t>
-  </si>
-  <si>
-    <t>Generate JSON international resource files (.json).</t>
-  </si>
-  <si>
-    <t>Generate IOS international resource files (.strings).</t>
-  </si>
-  <si>
-    <t>Generate an Android international resource file (strings.xml).</t>
-  </si>
-  <si>
-    <t>Generate Java international resource files (.properties).</t>
-  </si>
-  <si>
-    <t>Failed to convert%s attribute:%s</t>
-  </si>
-  <si>
-    <t>There is no%s field, please check whether the Excel template is correct.</t>
-  </si>
-  <si>
-    <t>There is no code to be generated in the specified Excel.</t>
-  </si>
-  <si>
-    <t>%s does not exist.</t>
-  </si>
-  <si>
-    <t>Excel failed to read, please check whether the Excel format is correct.</t>
-  </si>
-  <si>
-    <t>Failed to write file:%s</t>
-  </si>
-  <si>
-    <t>This type of code generation is currently not supported.</t>
-  </si>
-  <si>
-    <t>Unable to create (%s):%s</t>
-  </si>
-  <si>
-    <t>Resource ID [%s] is duplicated, please check.</t>
-  </si>
-  <si>
-    <t>Cannot access the value of the%s.%S property: \n%s</t>
-  </si>
-  <si>
-    <t>The output file already exists, and a directory cannot be generated. \n%s</t>
-  </si>
-  <si>
-    <t>Unable to create output file directory. \n%s</t>
-  </si>
-  <si>
-    <t>-Foreign key name is too long and has been truncated (%s) \n</t>
-  </si>
-  <si>
-    <t>无法读取配置文件（%s）</t>
+      <t>）</t>
+    </r>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>E_014</t>
+    <t xml:space="preserve">-- Foreign key name is too long and has been truncated (%s) </t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cannot access the value of the%s.%S property: %s</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -848,7 +847,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy/mm/dd"/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="16">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
@@ -939,6 +938,19 @@
       <name val="Helvetica"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="SimSun"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -1044,7 +1056,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1188,6 +1200,9 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2572,7 +2587,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C3" s="6">
         <v>40589</v>
@@ -2592,7 +2607,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C4" s="15">
         <v>40716</v>
@@ -2604,7 +2619,7 @@
         <v>7</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="20.5" customHeight="1">
@@ -2612,7 +2627,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C5" s="15">
         <v>42354</v>
@@ -2624,7 +2639,7 @@
         <v>7</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="20.5" customHeight="1">
@@ -2632,7 +2647,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C6" s="15">
         <v>42481</v>
@@ -2644,7 +2659,7 @@
         <v>7</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="20.5" customHeight="1">
@@ -2806,7 +2821,7 @@
     <sheetView showGridLines="0" topLeftCell="B2" zoomScale="107" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B2" sqref="B2"/>
-      <selection pane="bottomLeft" activeCell="G5" sqref="G5"/>
+      <selection pane="bottomLeft" activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.25" defaultRowHeight="16"/>
@@ -2852,7 +2867,7 @@
         <v>12</v>
       </c>
       <c r="F3" s="21" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="G3" s="22" t="s">
         <v>13</v>
@@ -2884,7 +2899,7 @@
         <v>18</v>
       </c>
       <c r="H4" s="22" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="I4" s="22" t="s">
         <v>16</v>
@@ -2896,16 +2911,16 @@
         <v>1</v>
       </c>
       <c r="C5" s="25" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D5" s="25"/>
       <c r="E5" s="25"/>
       <c r="F5" s="25"/>
       <c r="G5" s="16" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="H5" s="29" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="I5" s="25"/>
     </row>
@@ -2915,16 +2930,16 @@
         <v>2</v>
       </c>
       <c r="C6" s="25" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D6" s="25"/>
       <c r="E6" s="25"/>
       <c r="F6" s="25"/>
       <c r="G6" s="16" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="H6" s="29" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="I6" s="25"/>
     </row>
@@ -2934,16 +2949,16 @@
         <v>3</v>
       </c>
       <c r="C7" s="25" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D7" s="25"/>
       <c r="E7" s="25"/>
       <c r="F7" s="25"/>
       <c r="G7" s="16" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="H7" s="29" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="I7" s="25"/>
     </row>
@@ -2953,16 +2968,16 @@
         <v>4</v>
       </c>
       <c r="C8" s="25" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D8" s="25"/>
       <c r="E8" s="25"/>
       <c r="F8" s="25"/>
       <c r="G8" s="16" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="H8" s="29" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="I8" s="25"/>
     </row>
@@ -2972,16 +2987,16 @@
         <v>5</v>
       </c>
       <c r="C9" s="25" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D9" s="25"/>
       <c r="E9" s="25"/>
       <c r="F9" s="25"/>
       <c r="G9" s="16" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="H9" s="29" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="I9" s="25"/>
     </row>
@@ -2991,16 +3006,16 @@
         <v>6</v>
       </c>
       <c r="C10" s="25" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D10" s="25"/>
       <c r="E10" s="25"/>
       <c r="F10" s="25"/>
       <c r="G10" s="16" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="H10" s="30" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="I10" s="25"/>
     </row>
@@ -3010,16 +3025,16 @@
         <v>7</v>
       </c>
       <c r="C11" s="25" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D11" s="25"/>
       <c r="E11" s="25"/>
       <c r="F11" s="25"/>
       <c r="G11" s="16" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="H11" s="30" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="I11" s="25"/>
     </row>
@@ -3029,16 +3044,16 @@
         <v>8</v>
       </c>
       <c r="C12" s="25" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D12" s="25"/>
       <c r="E12" s="25"/>
       <c r="F12" s="25"/>
       <c r="G12" s="16" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="H12" s="30" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="I12" s="25"/>
     </row>
@@ -3048,16 +3063,16 @@
         <v>9</v>
       </c>
       <c r="C13" s="25" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D13" s="25"/>
       <c r="E13" s="25"/>
       <c r="F13" s="25"/>
       <c r="G13" s="16" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="H13" s="30" t="s">
-        <v>71</v>
+        <v>87</v>
       </c>
       <c r="I13" s="25"/>
     </row>
@@ -3171,7 +3186,7 @@
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="B2" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B2" sqref="B2"/>
-      <selection pane="bottomLeft" activeCell="C18" sqref="C18"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2:B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.25" defaultRowHeight="16"/>
@@ -3241,7 +3256,7 @@
         <v>18</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="H4" s="9" t="s">
         <v>16</v>
@@ -3257,7 +3272,7 @@
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
       <c r="F5" s="16" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="G5" s="16" t="s">
         <v>20</v>
@@ -3274,7 +3289,7 @@
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
       <c r="F6" s="16" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="G6" s="16" t="s">
         <v>22</v>
@@ -3291,7 +3306,7 @@
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
       <c r="F7" s="16" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="G7" s="16" t="s">
         <v>24</v>
@@ -3308,7 +3323,7 @@
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
       <c r="F8" s="16" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="G8" s="16" t="s">
         <v>26</v>
@@ -3325,7 +3340,7 @@
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
       <c r="F9" s="16" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="G9" s="16" t="s">
         <v>28</v>
@@ -3342,10 +3357,10 @@
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
       <c r="F10" s="16" t="s">
-        <v>90</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>30</v>
+        <v>95</v>
+      </c>
+      <c r="G10" s="48" t="s">
+        <v>88</v>
       </c>
       <c r="H10" s="5"/>
     </row>
@@ -3354,15 +3369,15 @@
         <v>7</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
       <c r="F11" s="16" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H11" s="5"/>
     </row>
@@ -3371,15 +3386,15 @@
         <v>8</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
       <c r="F12" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="G12" s="5" t="s">
-        <v>34</v>
+      <c r="G12" s="48" t="s">
+        <v>89</v>
       </c>
       <c r="H12" s="5"/>
     </row>
@@ -3388,15 +3403,15 @@
         <v>9</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
       <c r="F13" s="16" t="s">
         <v>92</v>
       </c>
-      <c r="G13" s="5" t="s">
-        <v>36</v>
+      <c r="G13" s="48" t="s">
+        <v>90</v>
       </c>
       <c r="H13" s="5"/>
     </row>
@@ -3405,15 +3420,15 @@
         <v>10</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
       <c r="F14" s="16" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="G14" s="16" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H14" s="5"/>
     </row>
@@ -3422,15 +3437,15 @@
         <v>11</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
       <c r="F15" s="16" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="G15" s="16" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H15" s="5"/>
     </row>
@@ -3439,15 +3454,15 @@
         <v>12</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
-      <c r="F16" s="16" t="s">
+      <c r="F16" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="G16" s="17" t="s">
         <v>93</v>
-      </c>
-      <c r="G16" s="17" t="s">
-        <v>45</v>
       </c>
       <c r="H16" s="5"/>
     </row>
@@ -3456,15 +3471,15 @@
         <v>13</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
       <c r="F17" s="16" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="G17" s="19" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="H17" s="5"/>
     </row>
@@ -3473,7 +3488,7 @@
         <v>14</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
@@ -3482,7 +3497,7 @@
         <v>无法读取配置文件（%s）</v>
       </c>
       <c r="G18" s="47" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="H18" s="5"/>
     </row>

--- a/message.xlsx
+++ b/message.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yanglibing/Work/cg/code-generator/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F2FC974-AEBE-0F4B-8A6B-DD54E7A4B0FB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19F26FF6-804A-334B-9EA6-16654DF7C5A2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16100" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16100" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#修订履历" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="72">
   <si>
     <t>修订履历</t>
   </si>
@@ -74,9 +74,6 @@
   </si>
   <si>
     <t>默认</t>
-  </si>
-  <si>
-    <t>中文（中国）</t>
   </si>
   <si>
     <t>在此添加其它语言</t>
@@ -192,10 +189,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>zh_CN</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>0.3</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -671,60 +664,6 @@
     </r>
   </si>
   <si>
-    <t>Generate SQL script (.ddl) of SqlServer database structure.</t>
-  </si>
-  <si>
-    <t>Generate SQL script (.ddl) for MySql database structure.</t>
-  </si>
-  <si>
-    <t>Generate SQL script (.ddl) for SQLite database structure.</t>
-  </si>
-  <si>
-    <t>Generate SQL script (.dml) for initial database data.</t>
-  </si>
-  <si>
-    <t>Generate .NET international resource files (.resx).</t>
-  </si>
-  <si>
-    <t>Generate JSON international resource files (.json).</t>
-  </si>
-  <si>
-    <t>Generate IOS international resource files (.strings).</t>
-  </si>
-  <si>
-    <t>Generate an Android international resource file (strings.xml).</t>
-  </si>
-  <si>
-    <t>Generate Java international resource files (.properties).</t>
-  </si>
-  <si>
-    <t>Failed to convert%s attribute:%s</t>
-  </si>
-  <si>
-    <t>There is no%s field, please check whether the Excel template is correct.</t>
-  </si>
-  <si>
-    <t>There is no code to be generated in the specified Excel.</t>
-  </si>
-  <si>
-    <t>%s does not exist.</t>
-  </si>
-  <si>
-    <t>Excel failed to read, please check whether the Excel format is correct.</t>
-  </si>
-  <si>
-    <t>Failed to write file:%s</t>
-  </si>
-  <si>
-    <t>This type of code generation is currently not supported.</t>
-  </si>
-  <si>
-    <t>Unable to create (%s):%s</t>
-  </si>
-  <si>
-    <t>Resource ID [%s] is duplicated, please check.</t>
-  </si>
-  <si>
     <t>无法读取配置文件（%s）</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -786,14 +725,6 @@
   </si>
   <si>
     <t>无法创建输出文件目录。%s</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>The output file already exists, and a directory cannot be generated. %s</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Unable to create output file directory. %s</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -829,14 +760,6 @@
       </rPr>
       <t>）</t>
     </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">-- Foreign key name is too long and has been truncated (%s) </t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Cannot access the value of the%s.%S property: %s</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -847,7 +770,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy/mm/dd"/>
   </numFmts>
-  <fonts count="16">
+  <fonts count="15">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
@@ -917,13 +840,6 @@
       <color indexed="8"/>
       <name val="Helvetica"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="SimSun"/>
-      <family val="3"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
@@ -1056,7 +972,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1135,39 +1051,36 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1197,12 +1110,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2553,14 +2460,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="16">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
     </row>
     <row r="2" spans="1:6" ht="20.75" customHeight="1">
       <c r="A2" s="3" t="s">
@@ -2587,7 +2494,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C3" s="6">
         <v>40589</v>
@@ -2607,7 +2514,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C4" s="15">
         <v>40716</v>
@@ -2619,7 +2526,7 @@
         <v>7</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="20.5" customHeight="1">
@@ -2627,7 +2534,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C5" s="15">
         <v>42354</v>
@@ -2639,7 +2546,7 @@
         <v>7</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="20.5" customHeight="1">
@@ -2647,7 +2554,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C6" s="15">
         <v>42481</v>
@@ -2659,7 +2566,7 @@
         <v>7</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="20.5" customHeight="1">
@@ -2816,12 +2723,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:IT18"/>
+  <dimension ref="A1:IS18"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="B2" zoomScale="107" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B2" zoomScale="107" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B2" sqref="B2"/>
-      <selection pane="bottomLeft" activeCell="H13" sqref="H13"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2:B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.25" defaultRowHeight="16"/>
@@ -2832,31 +2739,29 @@
     <col min="4" max="4" width="12.5" style="1" customWidth="1"/>
     <col min="5" max="6" width="13.5" style="1" customWidth="1"/>
     <col min="7" max="7" width="41.5" style="1" customWidth="1"/>
-    <col min="8" max="8" width="34.375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="18" style="1" customWidth="1"/>
-    <col min="10" max="254" width="12.25" style="1" customWidth="1"/>
-    <col min="255" max="16384" width="12.25" style="18"/>
+    <col min="8" max="8" width="18" style="1" customWidth="1"/>
+    <col min="9" max="253" width="12.25" style="1" customWidth="1"/>
+    <col min="254" max="16384" width="12.25" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" hidden="1"/>
-    <row r="2" spans="2:9">
-      <c r="B2" s="33" t="s">
+    <row r="1" spans="2:8" hidden="1"/>
+    <row r="2" spans="2:8">
+      <c r="B2" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="37" t="s">
+      <c r="C2" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="35" t="s">
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36"/>
-    </row>
-    <row r="3" spans="2:9" ht="17">
-      <c r="B3" s="34"/>
+      <c r="H2" s="35"/>
+    </row>
+    <row r="3" spans="2:8" ht="17">
+      <c r="B3" s="33"/>
       <c r="C3" s="20" t="s">
         <v>11</v>
       </c>
@@ -2867,7 +2772,7 @@
         <v>12</v>
       </c>
       <c r="F3" s="21" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G3" s="22" t="s">
         <v>13</v>
@@ -2875,208 +2780,175 @@
       <c r="H3" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="I3" s="22" t="s">
+    </row>
+    <row r="4" spans="2:8" ht="17">
+      <c r="B4" s="23" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="4" spans="2:9" ht="17">
-      <c r="B4" s="23" t="s">
+      <c r="C4" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="20" t="s">
+      <c r="D4" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="G4" s="22" t="s">
-        <v>18</v>
-      </c>
       <c r="H4" s="22" t="s">
-        <v>42</v>
-      </c>
-      <c r="I4" s="22" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="2:9" ht="16" customHeight="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" ht="16" customHeight="1">
       <c r="B5" s="24">
         <f>ROW()-4</f>
         <v>1</v>
       </c>
       <c r="C5" s="25" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D5" s="25"/>
       <c r="E5" s="25"/>
       <c r="F5" s="25"/>
-      <c r="G5" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="H5" s="29" t="s">
-        <v>59</v>
-      </c>
-      <c r="I5" s="25"/>
-    </row>
-    <row r="6" spans="2:9" ht="16" customHeight="1">
+      <c r="G5" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="H5" s="25"/>
+    </row>
+    <row r="6" spans="2:8" ht="16" customHeight="1">
       <c r="B6" s="24">
         <f t="shared" ref="B6:B18" si="0">ROW()-4</f>
         <v>2</v>
       </c>
       <c r="C6" s="25" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D6" s="25"/>
       <c r="E6" s="25"/>
       <c r="F6" s="25"/>
-      <c r="G6" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="H6" s="29" t="s">
-        <v>60</v>
-      </c>
-      <c r="I6" s="25"/>
-    </row>
-    <row r="7" spans="2:9" ht="16" customHeight="1">
+      <c r="G6" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="H6" s="25"/>
+    </row>
+    <row r="7" spans="2:8" ht="16" customHeight="1">
       <c r="B7" s="24">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="C7" s="25" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D7" s="25"/>
       <c r="E7" s="25"/>
       <c r="F7" s="25"/>
-      <c r="G7" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="H7" s="29" t="s">
-        <v>61</v>
-      </c>
-      <c r="I7" s="25"/>
-    </row>
-    <row r="8" spans="2:9" ht="16" customHeight="1">
+      <c r="G7" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="H7" s="25"/>
+    </row>
+    <row r="8" spans="2:8" ht="16" customHeight="1">
       <c r="B8" s="24">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="C8" s="25" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D8" s="25"/>
       <c r="E8" s="25"/>
       <c r="F8" s="25"/>
-      <c r="G8" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="H8" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="I8" s="25"/>
-    </row>
-    <row r="9" spans="2:9" ht="16" customHeight="1">
+      <c r="G8" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="H8" s="25"/>
+    </row>
+    <row r="9" spans="2:8" ht="16" customHeight="1">
       <c r="B9" s="24">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="C9" s="25" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D9" s="25"/>
       <c r="E9" s="25"/>
       <c r="F9" s="25"/>
-      <c r="G9" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="H9" s="29" t="s">
-        <v>63</v>
-      </c>
-      <c r="I9" s="25"/>
-    </row>
-    <row r="10" spans="2:9" ht="16" customHeight="1">
+      <c r="G9" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="H9" s="25"/>
+    </row>
+    <row r="10" spans="2:8" ht="16" customHeight="1">
       <c r="B10" s="24">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="C10" s="25" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D10" s="25"/>
       <c r="E10" s="25"/>
       <c r="F10" s="25"/>
-      <c r="G10" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="H10" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="I10" s="25"/>
-    </row>
-    <row r="11" spans="2:9" ht="16" customHeight="1">
+      <c r="G10" s="27" t="s">
+        <v>62</v>
+      </c>
+      <c r="H10" s="25"/>
+    </row>
+    <row r="11" spans="2:8" ht="16" customHeight="1">
       <c r="B11" s="24">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="C11" s="25" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D11" s="25"/>
       <c r="E11" s="25"/>
       <c r="F11" s="25"/>
-      <c r="G11" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="H11" s="30" t="s">
-        <v>65</v>
-      </c>
-      <c r="I11" s="25"/>
-    </row>
-    <row r="12" spans="2:9" ht="16" customHeight="1">
+      <c r="G11" s="27" t="s">
+        <v>63</v>
+      </c>
+      <c r="H11" s="25"/>
+    </row>
+    <row r="12" spans="2:8" ht="16" customHeight="1">
       <c r="B12" s="24">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="C12" s="25" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D12" s="25"/>
       <c r="E12" s="25"/>
       <c r="F12" s="25"/>
-      <c r="G12" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="H12" s="30" t="s">
-        <v>66</v>
-      </c>
-      <c r="I12" s="25"/>
-    </row>
-    <row r="13" spans="2:9" ht="16" customHeight="1">
+      <c r="G12" s="27" t="s">
+        <v>64</v>
+      </c>
+      <c r="H12" s="25"/>
+    </row>
+    <row r="13" spans="2:8" ht="16" customHeight="1">
       <c r="B13" s="24">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="C13" s="25" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D13" s="25"/>
       <c r="E13" s="25"/>
       <c r="F13" s="25"/>
-      <c r="G13" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="H13" s="30" t="s">
-        <v>87</v>
-      </c>
-      <c r="I13" s="25"/>
-    </row>
-    <row r="14" spans="2:9">
+      <c r="G13" s="27" t="s">
+        <v>67</v>
+      </c>
+      <c r="H13" s="25"/>
+    </row>
+    <row r="14" spans="2:8">
       <c r="B14" s="24">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -3085,14 +2957,13 @@
       <c r="D14" s="25"/>
       <c r="E14" s="25"/>
       <c r="F14" s="25"/>
-      <c r="G14" s="16" t="str">
-        <f t="shared" ref="G14:G18" si="1">IF(H14="", "", H14)</f>
-        <v/>
-      </c>
-      <c r="H14" s="26"/>
-      <c r="I14" s="25"/>
-    </row>
-    <row r="15" spans="2:9">
+      <c r="G14" s="16" t="e">
+        <f xml:space="preserve"> IF(#REF!="", "",#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H14" s="25"/>
+    </row>
+    <row r="15" spans="2:8">
       <c r="B15" s="24">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -3101,14 +2972,13 @@
       <c r="D15" s="25"/>
       <c r="E15" s="25"/>
       <c r="F15" s="25"/>
-      <c r="G15" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="H15" s="26"/>
-      <c r="I15" s="25"/>
-    </row>
-    <row r="16" spans="2:9">
+      <c r="G15" s="16" t="e">
+        <f xml:space="preserve"> IF(#REF!="", "",#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H15" s="25"/>
+    </row>
+    <row r="16" spans="2:8">
       <c r="B16" s="24">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -3117,14 +2987,13 @@
       <c r="D16" s="25"/>
       <c r="E16" s="25"/>
       <c r="F16" s="25"/>
-      <c r="G16" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="H16" s="27"/>
-      <c r="I16" s="25"/>
-    </row>
-    <row r="17" spans="2:9">
+      <c r="G16" s="16" t="e">
+        <f xml:space="preserve"> IF(#REF!="", "",#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H16" s="25"/>
+    </row>
+    <row r="17" spans="2:8">
       <c r="B17" s="24">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -3133,14 +3002,13 @@
       <c r="D17" s="25"/>
       <c r="E17" s="25"/>
       <c r="F17" s="25"/>
-      <c r="G17" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="H17" s="28"/>
-      <c r="I17" s="25"/>
-    </row>
-    <row r="18" spans="2:9">
+      <c r="G17" s="16" t="e">
+        <f xml:space="preserve"> IF(#REF!="", "",#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H17" s="25"/>
+    </row>
+    <row r="18" spans="2:8">
       <c r="B18" s="24">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -3149,17 +3017,16 @@
       <c r="D18" s="25"/>
       <c r="E18" s="25"/>
       <c r="F18" s="25"/>
-      <c r="G18" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="H18" s="26"/>
-      <c r="I18" s="25"/>
+      <c r="G18" s="16" t="e">
+        <f xml:space="preserve"> IF(#REF!="", "",#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H18" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="B2:B3"/>
-    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="G2:H2"/>
     <mergeCell ref="C2:F2"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
@@ -3181,9 +3048,9 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:IS18"/>
+  <dimension ref="A1:IR18"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B2" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="B2" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B2" sqref="B2"/>
       <selection pane="bottomLeft" activeCell="B2" sqref="B2:B3"/>
@@ -3197,29 +3064,27 @@
     <col min="4" max="4" width="12.5" style="1" customWidth="1"/>
     <col min="5" max="5" width="13.5" style="1" customWidth="1"/>
     <col min="6" max="6" width="48.125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="34.375" style="1" customWidth="1"/>
-    <col min="8" max="253" width="12.25" style="1" customWidth="1"/>
-    <col min="254" max="16384" width="12.25" style="10"/>
+    <col min="7" max="252" width="12.25" style="1" customWidth="1"/>
+    <col min="253" max="16384" width="12.25" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" hidden="1"/>
-    <row r="2" spans="2:8">
-      <c r="B2" s="40" t="s">
+    <row r="1" spans="2:7" hidden="1"/>
+    <row r="2" spans="2:7">
+      <c r="B2" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="44" t="s">
+      <c r="C2" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="45"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="42" t="s">
+      <c r="D2" s="44"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="43"/>
-      <c r="H2" s="43"/>
-    </row>
-    <row r="3" spans="2:8">
-      <c r="B3" s="41"/>
+      <c r="G2" s="42"/>
+    </row>
+    <row r="3" spans="2:7">
+      <c r="B3" s="40"/>
       <c r="C3" s="8" t="s">
         <v>11</v>
       </c>
@@ -3235,276 +3100,227 @@
       <c r="G3" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="9" t="s">
+    </row>
+    <row r="4" spans="2:7">
+      <c r="B4" s="11" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="4" spans="2:8">
-      <c r="B4" s="11" t="s">
+      <c r="C4" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="D4" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>18</v>
-      </c>
       <c r="G4" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="H4" s="9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="2:8">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7">
       <c r="B5" s="4">
         <v>1</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
       <c r="F5" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="G5" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="H5" s="5"/>
-    </row>
-    <row r="6" spans="2:8">
+        <v>19</v>
+      </c>
+      <c r="G5" s="5"/>
+    </row>
+    <row r="6" spans="2:7">
       <c r="B6" s="4">
         <v>2</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
       <c r="F6" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="G6" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="H6" s="5"/>
-    </row>
-    <row r="7" spans="2:8">
+        <v>21</v>
+      </c>
+      <c r="G6" s="5"/>
+    </row>
+    <row r="7" spans="2:7">
       <c r="B7" s="4">
         <v>3</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
       <c r="F7" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="G7" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="H7" s="5"/>
-    </row>
-    <row r="8" spans="2:8">
+        <v>23</v>
+      </c>
+      <c r="G7" s="5"/>
+    </row>
+    <row r="8" spans="2:7">
       <c r="B8" s="4">
         <v>4</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
       <c r="F8" s="16" t="s">
-        <v>79</v>
-      </c>
-      <c r="G8" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="H8" s="5"/>
-    </row>
-    <row r="9" spans="2:8">
+        <v>25</v>
+      </c>
+      <c r="G8" s="5"/>
+    </row>
+    <row r="9" spans="2:7">
       <c r="B9" s="4">
         <v>5</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
       <c r="F9" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="G9" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="H9" s="5"/>
-    </row>
-    <row r="10" spans="2:8">
+        <v>27</v>
+      </c>
+      <c r="G9" s="5"/>
+    </row>
+    <row r="10" spans="2:7">
       <c r="B10" s="4">
         <v>6</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
-      <c r="F10" s="16" t="s">
-        <v>95</v>
-      </c>
-      <c r="G10" s="48" t="s">
-        <v>88</v>
-      </c>
-      <c r="H10" s="5"/>
-    </row>
-    <row r="11" spans="2:8">
+      <c r="F10" s="29" t="s">
+        <v>68</v>
+      </c>
+      <c r="G10" s="5"/>
+    </row>
+    <row r="11" spans="2:7">
       <c r="B11" s="4">
         <v>7</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
-      <c r="F11" s="16" t="s">
-        <v>81</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="H11" s="5"/>
-    </row>
-    <row r="12" spans="2:8">
+      <c r="F11" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G11" s="5"/>
+    </row>
+    <row r="12" spans="2:7">
       <c r="B12" s="4">
         <v>8</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
-      <c r="F12" s="16" t="s">
-        <v>91</v>
-      </c>
-      <c r="G12" s="48" t="s">
-        <v>89</v>
-      </c>
-      <c r="H12" s="5"/>
-    </row>
-    <row r="13" spans="2:8">
+      <c r="F12" s="29" t="s">
+        <v>69</v>
+      </c>
+      <c r="G12" s="5"/>
+    </row>
+    <row r="13" spans="2:7">
       <c r="B13" s="4">
         <v>9</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
-      <c r="F13" s="16" t="s">
-        <v>92</v>
-      </c>
-      <c r="G13" s="48" t="s">
-        <v>90</v>
-      </c>
-      <c r="H13" s="5"/>
-    </row>
-    <row r="14" spans="2:8">
+      <c r="F13" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="G13" s="5"/>
+    </row>
+    <row r="14" spans="2:7">
       <c r="B14" s="4">
         <v>10</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
       <c r="F14" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="G14" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="H14" s="5"/>
-    </row>
-    <row r="15" spans="2:8">
+        <v>34</v>
+      </c>
+      <c r="G14" s="5"/>
+    </row>
+    <row r="15" spans="2:7">
       <c r="B15" s="4">
         <v>11</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
       <c r="F15" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="G15" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="H15" s="5"/>
-    </row>
-    <row r="16" spans="2:8">
+        <v>36</v>
+      </c>
+      <c r="G15" s="5"/>
+    </row>
+    <row r="16" spans="2:7">
       <c r="B16" s="4">
         <v>12</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
       <c r="F16" s="17" t="s">
-        <v>94</v>
-      </c>
-      <c r="G16" s="17" t="s">
-        <v>93</v>
-      </c>
-      <c r="H16" s="5"/>
-    </row>
-    <row r="17" spans="2:8">
+        <v>71</v>
+      </c>
+      <c r="G16" s="5"/>
+    </row>
+    <row r="17" spans="2:7">
       <c r="B17" s="4">
         <v>13</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
-      <c r="F17" s="16" t="s">
-        <v>84</v>
-      </c>
-      <c r="G17" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="H17" s="5"/>
-    </row>
-    <row r="18" spans="2:8">
+      <c r="F17" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="G17" s="5"/>
+    </row>
+    <row r="18" spans="2:7">
       <c r="B18" s="4">
         <v>14</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
-      <c r="F18" s="16" t="str">
-        <f t="shared" ref="F18" si="0">IF(G18="", "", G18)</f>
-        <v>无法读取配置文件（%s）</v>
-      </c>
-      <c r="G18" s="47" t="s">
-        <v>85</v>
-      </c>
-      <c r="H18" s="5"/>
+      <c r="F18" s="28" t="s">
+        <v>65</v>
+      </c>
+      <c r="G18" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="B2:B3"/>
-    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="F2:G2"/>
     <mergeCell ref="C2:E2"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>

--- a/message.xlsx
+++ b/message.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yanglibing/Work/cg/code-generator/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19F26FF6-804A-334B-9EA6-16654DF7C5A2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9FD597B-4C03-5F4D-BA91-DE8A59818540}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16100" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16100" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#修订履历" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="68">
   <si>
     <t>修订履历</t>
   </si>
@@ -106,12 +106,6 @@
     <t>所指定的Excel中没有要生成的代码。</t>
   </si>
   <si>
-    <t>E_004</t>
-  </si>
-  <si>
-    <t>%s 不存在。</t>
-  </si>
-  <si>
     <t>E_005</t>
   </si>
   <si>
@@ -131,12 +125,6 @@
   </si>
   <si>
     <t>E_009</t>
-  </si>
-  <si>
-    <t>E_010</t>
-  </si>
-  <si>
-    <t>暂不支持此种类型的代码生成。</t>
   </si>
   <si>
     <t>E_011</t>
@@ -2494,7 +2482,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C3" s="6">
         <v>40589</v>
@@ -2514,7 +2502,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C4" s="15">
         <v>40716</v>
@@ -2526,7 +2514,7 @@
         <v>7</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="20.5" customHeight="1">
@@ -2534,7 +2522,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C5" s="15">
         <v>42354</v>
@@ -2546,7 +2534,7 @@
         <v>7</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="20.5" customHeight="1">
@@ -2554,7 +2542,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C6" s="15">
         <v>42481</v>
@@ -2566,7 +2554,7 @@
         <v>7</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="20.5" customHeight="1">
@@ -2725,7 +2713,7 @@
   </sheetPr>
   <dimension ref="A1:IS18"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B2" zoomScale="107" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="B2" zoomScale="107" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B2" sqref="B2"/>
       <selection pane="bottomLeft" activeCell="B2" sqref="B2:B3"/>
@@ -2772,7 +2760,7 @@
         <v>12</v>
       </c>
       <c r="F3" s="21" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="G3" s="22" t="s">
         <v>13</v>
@@ -2810,13 +2798,13 @@
         <v>1</v>
       </c>
       <c r="C5" s="25" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D5" s="25"/>
       <c r="E5" s="25"/>
       <c r="F5" s="25"/>
       <c r="G5" s="26" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="H5" s="25"/>
     </row>
@@ -2826,13 +2814,13 @@
         <v>2</v>
       </c>
       <c r="C6" s="25" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D6" s="25"/>
       <c r="E6" s="25"/>
       <c r="F6" s="25"/>
       <c r="G6" s="26" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="H6" s="25"/>
     </row>
@@ -2842,13 +2830,13 @@
         <v>3</v>
       </c>
       <c r="C7" s="25" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D7" s="25"/>
       <c r="E7" s="25"/>
       <c r="F7" s="25"/>
       <c r="G7" s="26" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="H7" s="25"/>
     </row>
@@ -2858,13 +2846,13 @@
         <v>4</v>
       </c>
       <c r="C8" s="25" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D8" s="25"/>
       <c r="E8" s="25"/>
       <c r="F8" s="25"/>
       <c r="G8" s="26" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="H8" s="25"/>
     </row>
@@ -2874,13 +2862,13 @@
         <v>5</v>
       </c>
       <c r="C9" s="25" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D9" s="25"/>
       <c r="E9" s="25"/>
       <c r="F9" s="25"/>
       <c r="G9" s="26" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="H9" s="25"/>
     </row>
@@ -2890,13 +2878,13 @@
         <v>6</v>
       </c>
       <c r="C10" s="25" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D10" s="25"/>
       <c r="E10" s="25"/>
       <c r="F10" s="25"/>
       <c r="G10" s="27" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="H10" s="25"/>
     </row>
@@ -2906,13 +2894,13 @@
         <v>7</v>
       </c>
       <c r="C11" s="25" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D11" s="25"/>
       <c r="E11" s="25"/>
       <c r="F11" s="25"/>
       <c r="G11" s="27" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="H11" s="25"/>
     </row>
@@ -2922,13 +2910,13 @@
         <v>8</v>
       </c>
       <c r="C12" s="25" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D12" s="25"/>
       <c r="E12" s="25"/>
       <c r="F12" s="25"/>
       <c r="G12" s="27" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="H12" s="25"/>
     </row>
@@ -2938,13 +2926,13 @@
         <v>9</v>
       </c>
       <c r="C13" s="25" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D13" s="25"/>
       <c r="E13" s="25"/>
       <c r="F13" s="25"/>
       <c r="G13" s="27" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="H13" s="25"/>
     </row>
@@ -2957,10 +2945,7 @@
       <c r="D14" s="25"/>
       <c r="E14" s="25"/>
       <c r="F14" s="25"/>
-      <c r="G14" s="16" t="e">
-        <f xml:space="preserve"> IF(#REF!="", "",#REF!)</f>
-        <v>#REF!</v>
-      </c>
+      <c r="G14" s="16"/>
       <c r="H14" s="25"/>
     </row>
     <row r="15" spans="2:8">
@@ -2972,10 +2957,7 @@
       <c r="D15" s="25"/>
       <c r="E15" s="25"/>
       <c r="F15" s="25"/>
-      <c r="G15" s="16" t="e">
-        <f xml:space="preserve"> IF(#REF!="", "",#REF!)</f>
-        <v>#REF!</v>
-      </c>
+      <c r="G15" s="16"/>
       <c r="H15" s="25"/>
     </row>
     <row r="16" spans="2:8">
@@ -2987,10 +2969,7 @@
       <c r="D16" s="25"/>
       <c r="E16" s="25"/>
       <c r="F16" s="25"/>
-      <c r="G16" s="16" t="e">
-        <f xml:space="preserve"> IF(#REF!="", "",#REF!)</f>
-        <v>#REF!</v>
-      </c>
+      <c r="G16" s="16"/>
       <c r="H16" s="25"/>
     </row>
     <row r="17" spans="2:8">
@@ -3002,10 +2981,7 @@
       <c r="D17" s="25"/>
       <c r="E17" s="25"/>
       <c r="F17" s="25"/>
-      <c r="G17" s="16" t="e">
-        <f xml:space="preserve"> IF(#REF!="", "",#REF!)</f>
-        <v>#REF!</v>
-      </c>
+      <c r="G17" s="16"/>
       <c r="H17" s="25"/>
     </row>
     <row r="18" spans="2:8">
@@ -3017,10 +2993,7 @@
       <c r="D18" s="25"/>
       <c r="E18" s="25"/>
       <c r="F18" s="25"/>
-      <c r="G18" s="16" t="e">
-        <f xml:space="preserve"> IF(#REF!="", "",#REF!)</f>
-        <v>#REF!</v>
-      </c>
+      <c r="G18" s="16"/>
       <c r="H18" s="25"/>
     </row>
   </sheetData>
@@ -3048,9 +3021,9 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:IR18"/>
+  <dimension ref="A1:IR16"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="B2" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B2" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B2" sqref="B2"/>
       <selection pane="bottomLeft" activeCell="B2" sqref="B2:B3"/>
@@ -3165,7 +3138,7 @@
     </row>
     <row r="8" spans="2:7">
       <c r="B8" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>24</v>
@@ -3179,143 +3152,115 @@
     </row>
     <row r="9" spans="2:7">
       <c r="B9" s="4">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>26</v>
       </c>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
-      <c r="F9" s="16" t="s">
-        <v>27</v>
+      <c r="F9" s="29" t="s">
+        <v>64</v>
       </c>
       <c r="G9" s="5"/>
     </row>
     <row r="10" spans="2:7">
       <c r="B10" s="4">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
-      <c r="F10" s="29" t="s">
-        <v>68</v>
+      <c r="F10" s="5" t="s">
+        <v>28</v>
       </c>
       <c r="G10" s="5"/>
     </row>
     <row r="11" spans="2:7">
       <c r="B11" s="4">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>29</v>
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
-      <c r="F11" s="5" t="s">
-        <v>30</v>
+      <c r="F11" s="29" t="s">
+        <v>65</v>
       </c>
       <c r="G11" s="5"/>
     </row>
     <row r="12" spans="2:7">
       <c r="B12" s="4">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
       <c r="F12" s="29" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="G12" s="5"/>
     </row>
     <row r="13" spans="2:7">
       <c r="B13" s="4">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
-      <c r="F13" s="29" t="s">
-        <v>70</v>
+      <c r="F13" s="16" t="s">
+        <v>32</v>
       </c>
       <c r="G13" s="5"/>
     </row>
     <row r="14" spans="2:7">
       <c r="B14" s="4">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
-      <c r="F14" s="16" t="s">
-        <v>34</v>
+      <c r="F14" s="17" t="s">
+        <v>67</v>
       </c>
       <c r="G14" s="5"/>
     </row>
     <row r="15" spans="2:7">
       <c r="B15" s="4">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
-      <c r="F15" s="16" t="s">
-        <v>36</v>
+      <c r="F15" s="19" t="s">
+        <v>39</v>
       </c>
       <c r="G15" s="5"/>
     </row>
     <row r="16" spans="2:7">
       <c r="B16" s="4">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
-      <c r="F16" s="17" t="s">
-        <v>71</v>
+      <c r="F16" s="28" t="s">
+        <v>61</v>
       </c>
       <c r="G16" s="5"/>
-    </row>
-    <row r="17" spans="2:7">
-      <c r="B17" s="4">
-        <v>13</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="G17" s="5"/>
-    </row>
-    <row r="18" spans="2:7">
-      <c r="B18" s="4">
-        <v>14</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="28" t="s">
-        <v>65</v>
-      </c>
-      <c r="G18" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/message.xlsx
+++ b/message.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yanglibing/Work/cg/code-generator/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9FD597B-4C03-5F4D-BA91-DE8A59818540}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6129704C-06EF-6743-8E91-5491A20715BC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16100" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16100" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#修订履历" sheetId="1" r:id="rId1"/>
@@ -232,475 +232,11 @@
     <t>msg.prop</t>
   </si>
   <si>
-    <r>
-      <t>生成</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica"/>
-        <family val="2"/>
-      </rPr>
-      <t>SqlServer</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>数据库结构</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica"/>
-        <family val="2"/>
-      </rPr>
-      <t>SQL</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>脚本（</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica"/>
-        <family val="2"/>
-      </rPr>
-      <t>.ddl</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>）。</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>生成</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica"/>
-        <family val="2"/>
-      </rPr>
-      <t>MySql</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>数据库结构</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica"/>
-        <family val="2"/>
-      </rPr>
-      <t>SQL</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>脚本（</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica"/>
-        <family val="2"/>
-      </rPr>
-      <t>.ddl</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>）。</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>生成</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica"/>
-        <family val="2"/>
-      </rPr>
-      <t>SQLite</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>数据库结构</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica"/>
-        <family val="2"/>
-      </rPr>
-      <t>SQL</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>脚本（</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica"/>
-        <family val="2"/>
-      </rPr>
-      <t>.ddl</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>）。</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>生成数据库初始</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>数据</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica"/>
-        <family val="2"/>
-      </rPr>
-      <t>SQL</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>脚本（</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica"/>
-        <family val="2"/>
-      </rPr>
-      <t>.dml</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>）。</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>生成</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica"/>
-        <family val="2"/>
-      </rPr>
-      <t>.NET</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>国际化资源文件（</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica"/>
-        <family val="2"/>
-      </rPr>
-      <t>.resx</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>）。</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>生成</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica"/>
-        <family val="2"/>
-      </rPr>
-      <t>JSON</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>国际化资源文件（</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica"/>
-        <family val="2"/>
-      </rPr>
-      <t>.json</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>）。</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>生成</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica"/>
-        <family val="2"/>
-      </rPr>
-      <t>IOS</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>国际化资源文件（</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica"/>
-        <family val="2"/>
-      </rPr>
-      <t>.strings</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>）。</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>生成</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica"/>
-        <family val="2"/>
-      </rPr>
-      <t>Android</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>国际化资源文件（</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica"/>
-        <family val="2"/>
-      </rPr>
-      <t>strings.xml</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>）。</t>
-    </r>
-  </si>
-  <si>
     <t>无法读取配置文件（%s）</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>E_014</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>生成</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica"/>
-        <family val="2"/>
-      </rPr>
-      <t>Java</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>国际化资源文件（</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica"/>
-        <family val="2"/>
-      </rPr>
-      <t>.properties</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>）。</t>
-    </r>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -749,6 +285,33 @@
       <t>）</t>
     </r>
     <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>生成SqlServer数据库结构SQL脚本（.ddl）</t>
+  </si>
+  <si>
+    <t>生成MySql数据库结构SQL脚本（.ddl）</t>
+  </si>
+  <si>
+    <t>生成SQLite数据库结构SQL脚本（.ddl）</t>
+  </si>
+  <si>
+    <t>生成数据库初始 数据SQL脚本（.dml）</t>
+  </si>
+  <si>
+    <t>生成.NET国际化资源文件（.resx）</t>
+  </si>
+  <si>
+    <t>生成JSON国际化资源文件（.json）</t>
+  </si>
+  <si>
+    <t>生成IOS国际化资源文件（.strings）</t>
+  </si>
+  <si>
+    <t>生成Android国际化资源文件（strings.xml）</t>
+  </si>
+  <si>
+    <t>生成Java国际化资源文件（.properties）</t>
   </si>
 </sst>
 </file>
@@ -2713,7 +2276,7 @@
   </sheetPr>
   <dimension ref="A1:IS18"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="B2" zoomScale="107" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B2" zoomScale="107" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B2" sqref="B2"/>
       <selection pane="bottomLeft" activeCell="B2" sqref="B2:B3"/>
@@ -2804,7 +2367,7 @@
       <c r="E5" s="25"/>
       <c r="F5" s="25"/>
       <c r="G5" s="26" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="H5" s="25"/>
     </row>
@@ -2820,7 +2383,7 @@
       <c r="E6" s="25"/>
       <c r="F6" s="25"/>
       <c r="G6" s="26" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="H6" s="25"/>
     </row>
@@ -2836,7 +2399,7 @@
       <c r="E7" s="25"/>
       <c r="F7" s="25"/>
       <c r="G7" s="26" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="H7" s="25"/>
     </row>
@@ -2852,7 +2415,7 @@
       <c r="E8" s="25"/>
       <c r="F8" s="25"/>
       <c r="G8" s="26" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="H8" s="25"/>
     </row>
@@ -2868,7 +2431,7 @@
       <c r="E9" s="25"/>
       <c r="F9" s="25"/>
       <c r="G9" s="26" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="H9" s="25"/>
     </row>
@@ -2884,7 +2447,7 @@
       <c r="E10" s="25"/>
       <c r="F10" s="25"/>
       <c r="G10" s="27" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="H10" s="25"/>
     </row>
@@ -2900,7 +2463,7 @@
       <c r="E11" s="25"/>
       <c r="F11" s="25"/>
       <c r="G11" s="27" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="H11" s="25"/>
     </row>
@@ -2916,7 +2479,7 @@
       <c r="E12" s="25"/>
       <c r="F12" s="25"/>
       <c r="G12" s="27" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="H12" s="25"/>
     </row>
@@ -2932,7 +2495,7 @@
       <c r="E13" s="25"/>
       <c r="F13" s="25"/>
       <c r="G13" s="27" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="H13" s="25"/>
     </row>
@@ -3023,7 +2586,7 @@
   </sheetPr>
   <dimension ref="A1:IR16"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B2" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="B2" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B2" sqref="B2"/>
       <selection pane="bottomLeft" activeCell="B2" sqref="B2:B3"/>
@@ -3160,7 +2723,7 @@
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
       <c r="F9" s="29" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="G9" s="5"/>
     </row>
@@ -3188,7 +2751,7 @@
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
       <c r="F11" s="29" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="G11" s="5"/>
     </row>
@@ -3202,7 +2765,7 @@
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
       <c r="F12" s="29" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="G12" s="5"/>
     </row>
@@ -3230,7 +2793,7 @@
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
       <c r="F14" s="17" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="G14" s="5"/>
     </row>
@@ -3253,12 +2816,12 @@
         <v>14</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
       <c r="F16" s="28" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="G16" s="5"/>
     </row>

--- a/message.xlsx
+++ b/message.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yanglibing/Work/cg/code-generator/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6129704C-06EF-6743-8E91-5491A20715BC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D50342D-80D8-CB4E-9D8E-8C4C74FDC282}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16100" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="App Message" sheetId="4" r:id="rId2"/>
     <sheet name="Error Message" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="70">
   <si>
     <t>修订履历</t>
   </si>
@@ -312,6 +312,14 @@
   </si>
   <si>
     <t>生成Java国际化资源文件（.properties）</t>
+  </si>
+  <si>
+    <t>update</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>检查并更新到最新版本</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2499,16 +2507,20 @@
       </c>
       <c r="H13" s="25"/>
     </row>
-    <row r="14" spans="2:8">
+    <row r="14" spans="2:8" ht="17">
       <c r="B14" s="24">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="C14" s="25"/>
+      <c r="C14" s="25" t="s">
+        <v>68</v>
+      </c>
       <c r="D14" s="25"/>
       <c r="E14" s="25"/>
       <c r="F14" s="25"/>
-      <c r="G14" s="16"/>
+      <c r="G14" s="16" t="s">
+        <v>69</v>
+      </c>
       <c r="H14" s="25"/>
     </row>
     <row r="15" spans="2:8">
